--- a/List.xlsx
+++ b/List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arora\Desktop\Coding-Interview-101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24503CDA-7C62-4011-AF39-4D6907C4BC16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83A1CD4-4598-4ECB-83FB-C757B9D2C46A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="906">
   <si>
     <t>Topic:</t>
   </si>
@@ -2746,6 +2746,9 @@
   </si>
   <si>
     <t>do with min heaps too</t>
+  </si>
+  <si>
+    <t>check if s2 is substring of s1+s1 or not</t>
   </si>
 </sst>
 </file>
@@ -3192,8 +3195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3863,6 +3866,9 @@
       </c>
       <c r="C60" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="21">

--- a/List.xlsx
+++ b/List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arora\Desktop\Coding-Interview-101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83A1CD4-4598-4ECB-83FB-C757B9D2C46A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83206E99-FB37-495C-ADD8-9B78F23CE2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="907">
   <si>
     <t>Topic:</t>
   </si>
@@ -2749,6 +2749,9 @@
   </si>
   <si>
     <t>check if s2 is substring of s1+s1 or not</t>
+  </si>
+  <si>
+    <t>modification of lcs(dp ka problem h)</t>
   </si>
 </sst>
 </file>
@@ -3195,8 +3198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3913,6 +3916,9 @@
       </c>
       <c r="C64" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="21">

--- a/List.xlsx
+++ b/List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arora\Desktop\Coding-Interview-101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83206E99-FB37-495C-ADD8-9B78F23CE2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012975BC-8C39-416D-9D41-BBDE6CC3740F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="908">
   <si>
     <t>Topic:</t>
   </si>
@@ -2752,6 +2752,9 @@
   </si>
   <si>
     <t>modification of lcs(dp ka problem h)</t>
+  </si>
+  <si>
+    <t>do ternary search algo</t>
   </si>
 </sst>
 </file>
@@ -3198,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4273,7 +4276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21">
+    <row r="97" spans="1:4" ht="21">
       <c r="A97" s="5" t="s">
         <v>536</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21">
+    <row r="98" spans="1:4" ht="21">
       <c r="A98" s="5" t="s">
         <v>537</v>
       </c>
@@ -4295,12 +4298,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="21">
+    <row r="100" spans="1:4" ht="21">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" ht="21">
+    <row r="101" spans="1:4" ht="21">
       <c r="A101" s="5" t="s">
         <v>538</v>
       </c>
@@ -4311,7 +4314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="21">
+    <row r="102" spans="1:4" ht="21">
       <c r="A102" s="5" t="s">
         <v>539</v>
       </c>
@@ -4322,7 +4325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21">
+    <row r="103" spans="1:4" ht="21">
       <c r="A103" s="5" t="s">
         <v>540</v>
       </c>
@@ -4333,7 +4336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21">
+    <row r="104" spans="1:4" ht="21">
       <c r="A104" s="5" t="s">
         <v>541</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21">
+    <row r="105" spans="1:4" ht="21">
       <c r="A105" s="5" t="s">
         <v>542</v>
       </c>
@@ -4355,7 +4358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21">
+    <row r="106" spans="1:4" ht="21">
       <c r="A106" s="5" t="s">
         <v>543</v>
       </c>
@@ -4365,8 +4368,11 @@
       <c r="C106" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="21">
+      <c r="D106" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="21">
       <c r="A107" s="5" t="s">
         <v>544</v>
       </c>
@@ -4377,7 +4383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21">
+    <row r="108" spans="1:4" ht="21">
       <c r="A108" s="5" t="s">
         <v>545</v>
       </c>
@@ -4388,7 +4394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21">
+    <row r="109" spans="1:4" ht="21">
       <c r="A109" s="5" t="s">
         <v>546</v>
       </c>
@@ -4399,7 +4405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21">
+    <row r="110" spans="1:4" ht="21">
       <c r="A110" s="5" t="s">
         <v>547</v>
       </c>
@@ -4410,7 +4416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21">
+    <row r="111" spans="1:4" ht="21">
       <c r="A111" s="5" t="s">
         <v>548</v>
       </c>
@@ -4421,7 +4427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21">
+    <row r="112" spans="1:4" ht="21">
       <c r="A112" s="5" t="s">
         <v>549</v>
       </c>

--- a/List.xlsx
+++ b/List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arora\Desktop\Coding-Interview-101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012975BC-8C39-416D-9D41-BBDE6CC3740F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150FAA81-1666-4FF1-AD57-05EF83F82ECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="908">
   <si>
     <t>Topic:</t>
   </si>
@@ -3201,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4392,6 +4392,9 @@
       </c>
       <c r="C108" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="21">

--- a/List.xlsx
+++ b/List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arora\Desktop\Coding-Interview-101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150FAA81-1666-4FF1-AD57-05EF83F82ECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78761001-817D-40A1-9394-8B93B3DEE823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="912">
   <si>
     <t>Topic:</t>
   </si>
@@ -2755,6 +2755,18 @@
   </si>
   <si>
     <t>do ternary search algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> for nlogn use mergesort</t>
+  </si>
+  <si>
+    <t>binary search application</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>learn gap method too(no intuition)</t>
   </si>
 </sst>
 </file>
@@ -3201,8 +3213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4441,7 +4453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21">
+    <row r="113" spans="1:5" ht="21">
       <c r="A113" s="5" t="s">
         <v>550</v>
       </c>
@@ -4452,7 +4464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="21">
+    <row r="114" spans="1:5" ht="21">
       <c r="A114" s="5" t="s">
         <v>551</v>
       </c>
@@ -4462,8 +4474,14 @@
       <c r="C114" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="21">
+      <c r="D114" t="s">
+        <v>897</v>
+      </c>
+      <c r="E114" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="21">
       <c r="A115" s="5" t="s">
         <v>552</v>
       </c>
@@ -4474,7 +4492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="21">
+    <row r="116" spans="1:5" ht="21">
       <c r="A116" s="5" t="s">
         <v>553</v>
       </c>
@@ -4485,7 +4503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="21">
+    <row r="117" spans="1:5" ht="21">
       <c r="A117" s="5" t="s">
         <v>554</v>
       </c>
@@ -4496,7 +4514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="21">
+    <row r="118" spans="1:5" ht="21">
       <c r="A118" s="5" t="s">
         <v>555</v>
       </c>
@@ -4507,7 +4525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="21">
+    <row r="119" spans="1:5" ht="21">
       <c r="A119" s="5" t="s">
         <v>556</v>
       </c>
@@ -4518,7 +4536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="21">
+    <row r="120" spans="1:5" ht="21">
       <c r="A120" s="5" t="s">
         <v>557</v>
       </c>
@@ -4529,7 +4547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="21">
+    <row r="121" spans="1:5" ht="21">
       <c r="A121" s="5" t="s">
         <v>558</v>
       </c>
@@ -4540,7 +4558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="21">
+    <row r="122" spans="1:5" ht="21">
       <c r="A122" s="5" t="s">
         <v>559</v>
       </c>
@@ -4550,8 +4568,11 @@
       <c r="C122" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="21">
+      <c r="E122" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="21">
       <c r="A123" s="5" t="s">
         <v>560</v>
       </c>
@@ -4562,7 +4583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="21">
+    <row r="124" spans="1:5" ht="21">
       <c r="A124" s="5" t="s">
         <v>561</v>
       </c>
@@ -4572,8 +4593,14 @@
       <c r="C124" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="21">
+      <c r="D124" t="s">
+        <v>897</v>
+      </c>
+      <c r="E124" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="21">
       <c r="A125" s="5" t="s">
         <v>562</v>
       </c>
@@ -4584,7 +4611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21">
+    <row r="126" spans="1:5" ht="21">
       <c r="A126" s="5" t="s">
         <v>563</v>
       </c>
@@ -4595,7 +4622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="21">
+    <row r="127" spans="1:5" ht="21">
       <c r="A127" s="5" t="s">
         <v>564</v>
       </c>
@@ -4606,7 +4633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21">
+    <row r="128" spans="1:5" ht="21">
       <c r="A128" s="5" t="s">
         <v>565</v>
       </c>
@@ -4617,7 +4644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21">
+    <row r="129" spans="1:5" ht="21">
       <c r="A129" s="5" t="s">
         <v>566</v>
       </c>
@@ -4628,7 +4655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21">
+    <row r="130" spans="1:5" ht="21">
       <c r="A130" s="5" t="s">
         <v>567</v>
       </c>
@@ -4639,7 +4666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21">
+    <row r="131" spans="1:5" ht="21">
       <c r="A131" s="5" t="s">
         <v>568</v>
       </c>
@@ -4650,7 +4677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21">
+    <row r="132" spans="1:5" ht="21">
       <c r="A132" s="5" t="s">
         <v>569</v>
       </c>
@@ -4661,7 +4688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21">
+    <row r="133" spans="1:5" ht="21">
       <c r="A133" s="5" t="s">
         <v>570</v>
       </c>
@@ -4672,7 +4699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21">
+    <row r="134" spans="1:5" ht="21">
       <c r="A134" s="5" t="s">
         <v>571</v>
       </c>
@@ -4682,8 +4709,14 @@
       <c r="C134" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="21">
+      <c r="D134" t="s">
+        <v>897</v>
+      </c>
+      <c r="E134" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="21">
       <c r="A135" s="5" t="s">
         <v>572</v>
       </c>
@@ -4694,7 +4727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21">
+    <row r="136" spans="1:5" ht="21">
       <c r="A136" s="5" t="s">
         <v>573</v>
       </c>
@@ -4705,11 +4738,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="21">
+    <row r="138" spans="1:5" ht="21">
       <c r="B138" s="7"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:3" ht="21">
+    <row r="139" spans="1:5" ht="21">
       <c r="A139" s="8" t="s">
         <v>574</v>
       </c>
@@ -4720,7 +4753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="21">
+    <row r="140" spans="1:5" ht="21">
       <c r="A140" s="8" t="s">
         <v>575</v>
       </c>
@@ -4731,7 +4764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21">
+    <row r="141" spans="1:5" ht="21">
       <c r="A141" s="8" t="s">
         <v>576</v>
       </c>
@@ -4742,7 +4775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21">
+    <row r="142" spans="1:5" ht="21">
       <c r="A142" s="8" t="s">
         <v>577</v>
       </c>
@@ -4753,7 +4786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21">
+    <row r="143" spans="1:5" ht="21">
       <c r="A143" s="8" t="s">
         <v>578</v>
       </c>
@@ -4764,7 +4797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="21">
+    <row r="144" spans="1:5" ht="21">
       <c r="A144" s="8" t="s">
         <v>579</v>
       </c>
